--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1873E914-8932-4DCA-946B-622AC493BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F6F55-C23D-4E93-AA56-377C17945A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_29" sheetId="1" r:id="rId1"/>
+    <sheet name="C_38" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -322,6 +322,15 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -340,17 +349,8 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -425,11 +425,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:F29" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B4:F29" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15088A4F-5595-4171-931F-6456AC5AD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775DA73-7FDF-447B-8B5C-72BE377CC70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -53,18 +53,6 @@
     <t>Fuente: Para carretero: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Fuente: Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t>Fuente: Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t>Fuente: Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
-  </si>
-  <si>
-    <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman, adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
@@ -81,6 +69,24 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
+  </si>
+  <si>
+    <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -234,11 +240,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -283,6 +292,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -290,12 +305,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -351,7 +360,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B4:G30" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
@@ -588,9 +597,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA38"/>
+  <dimension ref="B2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -607,22 +616,22 @@
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>0</v>
@@ -1123,47 +1132,59 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G38" s="3"/>
+      <c r="B38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775DA73-7FDF-447B-8B5C-72BE377CC70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65550C6E-A594-40CA-9C38-7F450967B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Carretero</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">  adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -248,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -292,12 +298,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -305,6 +305,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -360,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B4:G30" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{05130EAC-BDE9-4404-B5BD-5D38C9E4044A}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
@@ -597,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA40"/>
+  <dimension ref="B2:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -647,21 +653,21 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="4">
-        <v>34065</v>
-      </c>
-      <c r="F5" s="4">
-        <v>196</v>
-      </c>
-      <c r="G5" s="4">
-        <v>70307.216</v>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>192.84492654643995</v>
+      </c>
+      <c r="G5" s="6">
+        <v>68154.248999999996</v>
       </c>
       <c r="AA5" t="e">
         <f>#REF!*1000</f>
@@ -669,482 +675,494 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4">
+        <v>34065</v>
+      </c>
+      <c r="F6" s="4">
+        <v>196</v>
+      </c>
+      <c r="G6" s="4">
+        <v>70307.216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6">
         <v>34673</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>193</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>67864</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
         <v>2023</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>565727</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>32475</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>207</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>72684</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
         <v>2023</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6">
+      <c r="D9" s="9"/>
+      <c r="E9" s="6">
         <v>32938</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>199</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>77297</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
         <v>2023</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4">
+      <c r="D10" s="10"/>
+      <c r="E10" s="4">
         <v>32654</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>196</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>74737</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
         <v>2023</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6">
+      <c r="D11" s="9"/>
+      <c r="E11" s="6">
         <v>33409</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>192</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>69334</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
         <v>2022</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>548159</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>31812</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>207</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>68417</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
         <v>2022</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6">
+      <c r="D13" s="9"/>
+      <c r="E13" s="6">
         <v>32437</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>201</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>75169</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
         <v>2022</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4">
+      <c r="D14" s="10"/>
+      <c r="E14" s="4">
         <v>32996</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>209</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>75171</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
         <v>2022</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6">
+      <c r="D15" s="9"/>
+      <c r="E15" s="6">
         <v>31210</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>191</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>68701</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
         <v>2021</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>534469</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>31631</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>213</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>73277</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="14">
         <v>2021</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6">
+      <c r="D17" s="9"/>
+      <c r="E17" s="6">
         <v>32423</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>196</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>74749</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
         <v>2021</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4">
+      <c r="D18" s="10"/>
+      <c r="E18" s="4">
         <v>34312</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>193.00143936042983</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>73234</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
         <v>2021</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6">
+      <c r="D19" s="9"/>
+      <c r="E19" s="6">
         <v>31524</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>193.69325400937956</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>64855</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
         <v>2020</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C20" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>512726</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>31111</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>200.57809441816133</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>66779</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="14">
         <v>2020</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6">
+      <c r="D21" s="9"/>
+      <c r="E21" s="6">
         <v>30308</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>155.95410472523415</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>64571</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
         <v>2020</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4">
+      <c r="D22" s="10"/>
+      <c r="E22" s="4">
         <v>27553</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>114.90310580117198</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>65611</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="14">
         <v>2020</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6">
+      <c r="D23" s="9"/>
+      <c r="E23" s="6">
         <v>31409</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>169.66262617940504</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>69759</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="13">
         <v>2019</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C24" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>552318</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>31033</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>197.5520605391425</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>71951</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="14">
         <v>2019</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="14">
         <v>3</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6">
+      <c r="D25" s="9"/>
+      <c r="E25" s="6">
         <v>32560</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>189.54529999881794</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>76511</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="13">
         <v>2019</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C26" s="13">
         <v>2</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4">
+      <c r="D26" s="10"/>
+      <c r="E26" s="4">
         <v>31881</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>190.36580778799106</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="4">
         <v>78768</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="14">
         <v>2019</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6">
+      <c r="D27" s="9"/>
+      <c r="E27" s="6">
         <v>29715</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>196.73772397698451</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>75702</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="13">
         <v>2018</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C28" s="13">
         <v>4</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>556411</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>32135</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>215.81588753634841</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>76824</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="14">
         <v>2018</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C29" s="14">
         <v>3</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6">
+      <c r="D29" s="9"/>
+      <c r="E29" s="6">
         <v>32318</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>203.82508946678863</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>82588</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="13">
         <v>2018</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4">
+      <c r="D30" s="10"/>
+      <c r="E30" s="4">
         <v>33073</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>213.8737613067822</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>82579</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="14">
         <v>2018</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6">
+      <c r="D31" s="9"/>
+      <c r="E31" s="6">
         <v>30512</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>196.80538765777931</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>75022</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>16</v>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="12"/>
     </row>
@@ -1156,35 +1174,41 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="3"/>
+      <c r="B40" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65550C6E-A594-40CA-9C38-7F450967B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBC5B8-9F83-454E-9409-01389BAA0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_38" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Fuente: Para carretero: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
-  </si>
-  <si>
     <t>(Miles de toneladas)</t>
   </si>
   <si>
@@ -68,28 +65,28 @@
     <t>Año</t>
   </si>
   <si>
-    <t xml:space="preserve">   Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
-  </si>
-  <si>
     <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman,</t>
   </si>
   <si>
-    <t xml:space="preserve">  publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t xml:space="preserve"> adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -103,47 +100,50 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -249,9 +249,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -283,7 +280,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -329,7 +326,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -383,7 +380,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,28 +388,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -421,14 +418,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -605,39 +602,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>0</v>
@@ -652,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2024</v>
       </c>
@@ -660,8 +657,8 @@
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="17" t="s">
-        <v>16</v>
+      <c r="E5" s="16">
+        <v>32495.259291499999</v>
       </c>
       <c r="F5" s="6">
         <v>192.84492654643995</v>
@@ -674,7 +671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>2024</v>
       </c>
@@ -683,16 +680,16 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="4">
-        <v>34065</v>
+        <v>34065.2059285</v>
       </c>
       <c r="F6" s="4">
-        <v>196</v>
+        <v>195.6980349097</v>
       </c>
       <c r="G6" s="4">
         <v>70307.216</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2024</v>
       </c>
@@ -701,16 +698,16 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6">
-        <v>34673</v>
+        <v>34673.374311</v>
       </c>
       <c r="F7" s="6">
-        <v>193</v>
+        <v>194.95281375580001</v>
       </c>
       <c r="G7" s="6">
         <v>67864</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>2023</v>
       </c>
@@ -721,16 +718,16 @@
         <v>565727</v>
       </c>
       <c r="E8" s="4">
-        <v>32475</v>
+        <v>32474.845916599988</v>
       </c>
       <c r="F8" s="4">
-        <v>207</v>
+        <v>206.5184408579</v>
       </c>
       <c r="G8" s="4">
         <v>72684</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>2023</v>
       </c>
@@ -739,16 +736,16 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6">
-        <v>32938</v>
+        <v>32938.064706999998</v>
       </c>
       <c r="F9" s="6">
-        <v>199</v>
+        <v>198.10225225360006</v>
       </c>
       <c r="G9" s="6">
         <v>77297</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>2023</v>
       </c>
@@ -757,16 +754,16 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="4">
-        <v>32654</v>
+        <v>32654.448896499998</v>
       </c>
       <c r="F10" s="4">
-        <v>196</v>
+        <v>195.93434030649996</v>
       </c>
       <c r="G10" s="4">
         <v>74737</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2023</v>
       </c>
@@ -775,16 +772,16 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6">
-        <v>33409</v>
+        <v>33408.695294000005</v>
       </c>
       <c r="F11" s="6">
-        <v>192</v>
+        <v>192.31702734060011</v>
       </c>
       <c r="G11" s="6">
         <v>69334</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>2022</v>
       </c>
@@ -795,16 +792,16 @@
         <v>548159</v>
       </c>
       <c r="E12" s="4">
-        <v>31812</v>
+        <v>31812.399049789135</v>
       </c>
       <c r="F12" s="4">
-        <v>207</v>
+        <v>207.44957959299998</v>
       </c>
       <c r="G12" s="4">
         <v>68417</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2022</v>
       </c>
@@ -813,16 +810,16 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6">
-        <v>32437</v>
+        <v>32436.650621500004</v>
       </c>
       <c r="F13" s="6">
-        <v>201</v>
+        <v>200.41513941626005</v>
       </c>
       <c r="G13" s="6">
         <v>75169</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>2022</v>
       </c>
@@ -831,16 +828,16 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="4">
-        <v>32996</v>
+        <v>32995.800959337845</v>
       </c>
       <c r="F14" s="4">
-        <v>209</v>
+        <v>209.53397946990003</v>
       </c>
       <c r="G14" s="4">
         <v>75171</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>2022</v>
       </c>
@@ -849,16 +846,16 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6">
-        <v>31210</v>
+        <v>31210.206988248789</v>
       </c>
       <c r="F15" s="6">
-        <v>191</v>
+        <v>191.39275181479999</v>
       </c>
       <c r="G15" s="6">
         <v>68701</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>2021</v>
       </c>
@@ -869,16 +866,16 @@
         <v>534469</v>
       </c>
       <c r="E16" s="4">
-        <v>31631</v>
+        <v>31630.514944016973</v>
       </c>
       <c r="F16" s="4">
-        <v>213</v>
+        <v>212.91686863530001</v>
       </c>
       <c r="G16" s="4">
         <v>73277</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>2021</v>
       </c>
@@ -887,16 +884,16 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="6">
-        <v>32423</v>
+        <v>32423.409937840333</v>
       </c>
       <c r="F17" s="6">
-        <v>196</v>
+        <v>196.0363765733</v>
       </c>
       <c r="G17" s="6">
         <v>74749</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>2021</v>
       </c>
@@ -905,16 +902,16 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="4">
-        <v>34312</v>
+        <v>34311.741204166305</v>
       </c>
       <c r="F18" s="4">
-        <v>193.00143936042983</v>
+        <v>194.48941446050003</v>
       </c>
       <c r="G18" s="4">
         <v>73234</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>2021</v>
       </c>
@@ -923,16 +920,16 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="6">
-        <v>31524</v>
+        <v>31523.81947519313</v>
       </c>
       <c r="F19" s="6">
-        <v>193.69325400937956</v>
+        <v>194.37553637900001</v>
       </c>
       <c r="G19" s="6">
         <v>64855</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>2020</v>
       </c>
@@ -943,16 +940,16 @@
         <v>512726</v>
       </c>
       <c r="E20" s="4">
-        <v>31111</v>
+        <v>31111.357007057821</v>
       </c>
       <c r="F20" s="4">
-        <v>200.57809441816133</v>
+        <v>200.57809441839996</v>
       </c>
       <c r="G20" s="4">
         <v>66779</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>2020</v>
       </c>
@@ -961,16 +958,16 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="6">
-        <v>30308</v>
+        <v>30308.104352463604</v>
       </c>
       <c r="F21" s="6">
-        <v>155.95410472523415</v>
+        <v>155.95410472520001</v>
       </c>
       <c r="G21" s="6">
         <v>64571</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>2020</v>
       </c>
@@ -979,16 +976,16 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="4">
-        <v>27553</v>
+        <v>27552.924288397102</v>
       </c>
       <c r="F22" s="4">
-        <v>114.90310580117198</v>
+        <v>114.9031058012</v>
       </c>
       <c r="G22" s="4">
         <v>65611</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>2020</v>
       </c>
@@ -997,16 +994,16 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="6">
-        <v>31409</v>
+        <v>31408.919082404427</v>
       </c>
       <c r="F23" s="6">
-        <v>169.66262617940504</v>
+        <v>169.66267317909998</v>
       </c>
       <c r="G23" s="6">
         <v>69759</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>2019</v>
       </c>
@@ -1017,16 +1014,16 @@
         <v>552318</v>
       </c>
       <c r="E24" s="4">
-        <v>31033</v>
+        <v>31033.42271943418</v>
       </c>
       <c r="F24" s="4">
-        <v>197.5520605391425</v>
+        <v>203.596134538</v>
       </c>
       <c r="G24" s="4">
         <v>71951</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>2019</v>
       </c>
@@ -1035,16 +1032,16 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="6">
-        <v>32560</v>
+        <v>32560.282552278186</v>
       </c>
       <c r="F25" s="6">
-        <v>189.54529999881794</v>
+        <v>194.49256999899998</v>
       </c>
       <c r="G25" s="6">
         <v>76511</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>2019</v>
       </c>
@@ -1053,16 +1050,16 @@
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="4">
-        <v>31881</v>
+        <v>31880.54865369614</v>
       </c>
       <c r="F26" s="4">
-        <v>190.36580778799106</v>
+        <v>195.52530778800002</v>
       </c>
       <c r="G26" s="4">
         <v>78768</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>2019</v>
       </c>
@@ -1071,16 +1068,16 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="6">
-        <v>29715</v>
+        <v>29714.801600761464</v>
       </c>
       <c r="F27" s="6">
-        <v>196.73772397698451</v>
+        <v>201.1130589771</v>
       </c>
       <c r="G27" s="6">
         <v>75702</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>2018</v>
       </c>
@@ -1094,13 +1091,13 @@
         <v>32135</v>
       </c>
       <c r="F28" s="4">
-        <v>215.81588753634841</v>
+        <v>209.771813536</v>
       </c>
       <c r="G28" s="4">
         <v>76824</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>2018</v>
       </c>
@@ -1112,13 +1109,13 @@
         <v>32318</v>
       </c>
       <c r="F29" s="6">
-        <v>203.82508946678863</v>
+        <v>198.87781946639996</v>
       </c>
       <c r="G29" s="6">
         <v>82588</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>2018</v>
       </c>
@@ -1130,13 +1127,13 @@
         <v>33073</v>
       </c>
       <c r="F30" s="4">
-        <v>213.8737613067822</v>
+        <v>208.71426130699999</v>
       </c>
       <c r="G30" s="4">
         <v>82579</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>2018</v>
       </c>
@@ -1148,66 +1145,66 @@
         <v>30512</v>
       </c>
       <c r="F31" s="6">
-        <v>196.80538765777931</v>
+        <v>192.4300526573</v>
       </c>
       <c r="G31" s="6">
         <v>75022</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
-        <v>10</v>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="16" t="s">
-        <v>11</v>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="3"/>
     </row>
   </sheetData>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBC5B8-9F83-454E-9409-01389BAA0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C460B-933E-4AEC-A2A5-9AA8442DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -77,16 +77,16 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t xml:space="preserve">    Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
-  </si>
-  <si>
     <t>Actualización: Octubre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
 </sst>
 </file>
@@ -96,28 +96,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -133,18 +118,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -208,110 +201,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -326,9 +280,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -349,6 +304,118 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -363,15 +430,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{05130EAC-BDE9-4404-B5BD-5D38C9E4044A}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{05130EAC-BDE9-4404-B5BD-5D38C9E4044A}" name="Trimestre" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,613 +678,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>32495.259291499999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>192.84492654643995</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>68154.248999999996</v>
       </c>
-      <c r="AA5" t="e">
+      <c r="AA5" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>34065.2059285</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>195.6980349097</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>70307.216</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>34673.374311</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>194.95281375580001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <v>67864</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2023</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>565727</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <v>32474.845916599988</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>206.5184408579</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="12">
         <v>72684</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2023</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>32938.064706999998</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>198.10225225360006</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <v>77297</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>32654.448896499998</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>195.93434030649996</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>74737</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>33408.695294000005</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>192.31702734060011</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="9">
         <v>69334</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2022</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>548159</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
         <v>31812.399049789135</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>207.44957959299998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>68417</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2022</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>32436.650621500004</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>200.41513941626005</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="9">
         <v>75169</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>32995.800959337845</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="12">
         <v>209.53397946990003</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="12">
         <v>75171</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>31210.206988248789</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>191.39275181479999</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="9">
         <v>68701</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2021</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>534469</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="12">
         <v>31630.514944016973</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <v>212.91686863530001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="12">
         <v>73277</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
         <v>2021</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>32423.409937840333</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="9">
         <v>196.0363765733</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="9">
         <v>74749</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>34311.741204166305</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <v>194.48941446050003</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="12">
         <v>73234</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2021</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <v>31523.81947519313</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="17">
         <v>194.37553637900001</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="17">
         <v>64855</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2020</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>512726</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="12">
         <v>31111.357007057821</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <v>200.57809441839996</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="12">
         <v>66779</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>30308.104352463604</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>155.95410472520001</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="9">
         <v>64571</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <v>27552.924288397102</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <v>114.9031058012</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>65611</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="8">
         <v>1</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>31408.919082404427</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>169.66267317909998</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <v>69759</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2019</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>552318</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="12">
         <v>31033.42271943418</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <v>203.596134538</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="12">
         <v>71951</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="8">
         <v>3</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>32560.282552278186</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>194.49256999899998</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <v>76511</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
         <v>31880.54865369614</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <v>195.52530778800002</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="12">
         <v>78768</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>29714.801600761464</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>201.1130589771</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="9">
         <v>75702</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2018</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="12">
         <v>556411</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="12">
         <v>32135</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <v>209.771813536</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="12">
         <v>76824</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
         <v>2018</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>3</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>32318</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>198.87781946639996</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="9">
         <v>82588</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>33073</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="12">
         <v>208.71426130699999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="12">
         <v>82579</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="8">
         <v>1</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>30512</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="9">
         <v>192.4300526573</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="9">
         <v>75022</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C460B-933E-4AEC-A2A5-9AA8442DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BECC1B-AAC7-4A61-9F54-5C52C4BF3DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Carretero</t>
   </si>
@@ -77,9 +77,6 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
   <si>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Actualización: Diciembre 2024.</t>
+  </si>
+  <si>
+    <t>ND No Disponible</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -248,62 +254,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -398,6 +357,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -410,10 +376,53 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -430,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G32" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -442,12 +451,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{05130EAC-BDE9-4404-B5BD-5D38C9E4044A}" name="Trimestre" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{05130EAC-BDE9-4404-B5BD-5D38C9E4044A}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA41"/>
+  <dimension ref="B2:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -727,562 +736,586 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12">
+        <v>198.72362983940002</v>
+      </c>
+      <c r="G5" s="12">
+        <v>66309.062999999966</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <v>32495.259291499999</v>
       </c>
-      <c r="F5" s="9">
-        <v>192.84492654643995</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F6" s="9">
+        <v>191.31764371943996</v>
+      </c>
+      <c r="G6" s="9">
         <v>68154.248999999996</v>
       </c>
-      <c r="AA5" s="3" t="e">
+      <c r="AA6" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <v>34065.2059285</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>195.6980349097</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>70307.216</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>34673.374311</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>194.95281375580001</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>67864</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2023</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>565727</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>32474.845916599988</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>206.5184408579</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>72684</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2023</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>32938.064706999998</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>198.10225225360006</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>77297</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>32654.448896499998</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>195.93434030649996</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>74737</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>33408.695294000005</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>192.31702734060011</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>69334</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2022</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>548159</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>31812.399049789135</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>207.44957959299998</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>68417</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2022</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>32436.650621500004</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>200.41513941626005</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>75169</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>32995.800959337845</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>209.53397946990003</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>75171</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>31210.206988248789</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>191.39275181479999</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>68701</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
         <v>2021</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>534469</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>31630.514944016973</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>212.91686863530001</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>73277</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2021</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>32423.409937840333</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>196.0363765733</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>74749</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <v>34311.741204166305</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>194.48941446050003</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>73234</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
         <v>2021</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C20" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <v>31523.81947519313</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>194.37553637900001</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>64855</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2020</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>512726</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>31111.357007057821</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>200.57809441839996</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>66779</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
         <v>30308.104352463604</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>155.95410472520001</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>64571</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>27552.924288397102</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>114.9031058012</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>65611</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
         <v>31408.919082404427</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>169.66267317909998</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>69759</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2019</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>552318</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>31033.42271943418</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>203.596134538</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>71951</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
         <v>32560.282552278186</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>194.49256999899998</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>76511</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>31880.54865369614</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>195.52530778800002</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>78768</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
         <v>29714.801600761464</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>201.1130589771</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>75702</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="11">
         <v>2018</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>556411</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>32135</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>209.771813536</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>76824</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2018</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
         <v>32318</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>198.87781946639996</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>82588</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>33073</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>208.71426130699999</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>82579</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
         <v>30512</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>192.4300526573</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>75022</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="14" t="s">
-        <v>15</v>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G41" s="15"/>
+      <c r="B41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BECC1B-AAC7-4A61-9F54-5C52C4BF3DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC724B5-E5BF-4FD5-9B4E-D6814F546B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,13 +86,7 @@
     <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Actualización: Diciembre 2024.</t>
-  </si>
-  <si>
-    <t>ND No Disponible</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA43"/>
+  <dimension ref="B2:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -743,8 +737,8 @@
         <v>4</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="18" t="s">
-        <v>16</v>
+      <c r="E5" s="18">
+        <v>31452.1</v>
       </c>
       <c r="F5" s="12">
         <v>198.72362983940002</v>
@@ -1257,65 +1251,59 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="13"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="13" t="s">
-        <v>9</v>
+      <c r="B35" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="14" t="s">
-        <v>12</v>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="13" t="s">
-        <v>4</v>
+      <c r="B39" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G43" s="15"/>
+      <c r="G42" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC724B5-E5BF-4FD5-9B4E-D6814F546B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C4143-41DF-432A-B0D2-6E38DE133EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_38" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,7 +86,13 @@
     <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND No Disponible</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G32" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G33" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -679,13 +685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA42"/>
+  <dimension ref="B2:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
@@ -697,19 +703,19 @@
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" ht="18">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:27">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:27">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -729,581 +735,605 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+    <row r="5" spans="2:27">
+      <c r="B5" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>181.8609817</v>
+      </c>
+      <c r="G5" s="9">
+        <v>59764.233999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18">
+      <c r="D6" s="12"/>
+      <c r="E6" s="18">
         <v>31452.1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>198.72362983940002</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>66309.062999999966</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="2:27">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
         <v>32495.259291499999</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>191.31764371943996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>68154.248999999996</v>
       </c>
-      <c r="AA6" s="3" t="e">
+      <c r="AA7" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:27">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>34065.2059285</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>195.6980349097</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>70307.216</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:27">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>34673.374311</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>194.95281375580001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>67864</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:27">
+      <c r="B10" s="11">
         <v>2023</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>565727</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>32474.845916599988</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>206.5184408579</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>72684</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:27">
+      <c r="B11" s="8">
         <v>2023</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
         <v>32938.064706999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>198.10225225360006</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>77297</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:27">
+      <c r="B12" s="11">
         <v>2023</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>32654.448896499998</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>195.93434030649996</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>74737</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:27">
+      <c r="B13" s="8">
         <v>2023</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>33408.695294000005</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>192.31702734060011</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>69334</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:27">
+      <c r="B14" s="11">
         <v>2022</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>548159</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>31812.399049789135</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>207.44957959299998</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>68417</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:27">
+      <c r="B15" s="8">
         <v>2022</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>32436.650621500004</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>200.41513941626005</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>75169</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:27">
+      <c r="B16" s="11">
         <v>2022</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>32995.800959337845</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>209.53397946990003</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>75171</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2022</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>31210.206988248789</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>191.39275181479999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>68701</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
+    <row r="18" spans="2:7">
+      <c r="B18" s="11">
         <v>2021</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="11">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>534469</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>31630.514944016973</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>212.91686863530001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>73277</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2021</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <v>32423.409937840333</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>196.0363765733</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>74749</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7">
+      <c r="B20" s="11">
         <v>2021</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>34311.741204166305</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>194.48941446050003</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>73234</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+    <row r="21" spans="2:7">
+      <c r="B21" s="16">
         <v>2021</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <v>31523.81947519313</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>194.37553637900001</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>64855</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="11">
         <v>2020</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>512726</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>31111.357007057821</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>200.57809441839996</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>66779</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="8">
         <v>2020</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
         <v>30308.104352463604</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>155.95410472520001</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>64571</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="11">
         <v>2020</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>27552.924288397102</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>114.9031058012</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>65611</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="8">
         <v>2020</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
         <v>31408.919082404427</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>169.66267317909998</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>69759</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="11">
         <v>2019</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>552318</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>31033.42271943418</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>203.596134538</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>71951</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
         <v>32560.282552278186</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>194.49256999899998</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>76511</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="11">
         <v>2019</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C28" s="11">
         <v>2</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>31880.54865369614</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>195.52530778800002</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>78768</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2019</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
         <v>29714.801600761464</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>201.1130589771</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>75702</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="11">
         <v>2018</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C30" s="11">
         <v>4</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <v>556411</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>32135</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F30" s="12">
         <v>209.771813536</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="12">
         <v>76824</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2018</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
         <v>32318</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>198.87781946639996</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>82588</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="11">
         <v>2018</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C32" s="11">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
         <v>33073</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>208.71426130699999</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>82579</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
         <v>2018</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>30512</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>192.4300526573</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>75022</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="14" t="s">
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="14" t="s">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="14" t="s">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G42" s="15"/>
+    <row r="44" spans="2:7">
+      <c r="G44" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C4143-41DF-432A-B0D2-6E38DE133EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577CA647-04C3-4194-A44A-E39EE529B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_38" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,13 +86,7 @@
     <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>ND No Disponible</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -685,9 +679,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA44"/>
+  <dimension ref="B2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -743,8 +737,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
+      <c r="E5" s="10">
+        <v>31324.9</v>
       </c>
       <c r="F5" s="9">
         <v>181.8609817</v>
@@ -760,7 +754,9 @@
       <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>572028</v>
+      </c>
       <c r="E6" s="18">
         <v>31452.1</v>
       </c>
@@ -1304,36 +1300,30 @@
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="14" t="s">
-        <v>18</v>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="13" t="s">
-        <v>4</v>
+      <c r="B40" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="G44" s="15"/>
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Carga_multimodal.xlsx
+++ b/Carga_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577CA647-04C3-4194-A44A-E39EE529B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5877809-D4A7-42EB-B43E-C914B464D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">     Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G33" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G34" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -679,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA43"/>
+  <dimension ref="B2:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -730,600 +730,616 @@
       </c>
     </row>
     <row r="5" spans="2:27">
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2025</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12">
+        <v>193.1289236069982</v>
+      </c>
+      <c r="G5" s="12">
+        <v>63677.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <v>31324.9</v>
       </c>
-      <c r="F5" s="9">
-        <v>181.8609817</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F6" s="9">
+        <v>181.86098173347199</v>
+      </c>
+      <c r="G6" s="9">
         <v>59764.233999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="11">
+    <row r="7" spans="2:27">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>572028</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E7" s="18">
         <v>31452.1</v>
       </c>
-      <c r="F6" s="12">
-        <v>198.72362983940002</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F7" s="12">
+        <v>200.69955383956324</v>
+      </c>
+      <c r="G7" s="12">
         <v>66309.062999999966</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="8">
+    <row r="8" spans="2:27">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
         <v>32495.259291499999</v>
       </c>
-      <c r="F7" s="9">
-        <v>191.31764371943996</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F8" s="9">
+        <v>193.4109577200233</v>
+      </c>
+      <c r="G8" s="9">
         <v>68154.248999999996</v>
       </c>
-      <c r="AA7" s="3" t="e">
+      <c r="AA8" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="11">
+    <row r="9" spans="2:27">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>34065.2059285</v>
       </c>
-      <c r="F8" s="12">
-        <v>195.6980349097</v>
-      </c>
-      <c r="G8" s="12">
-        <v>70307.216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="8">
+      <c r="F9" s="12">
+        <v>196.13823190969802</v>
+      </c>
+      <c r="G9" s="12">
+        <v>70307.214000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>34673.374311</v>
       </c>
-      <c r="F9" s="9">
-        <v>194.95281375580001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>67864</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="11">
+      <c r="F10" s="9">
+        <v>194.96968275580141</v>
+      </c>
+      <c r="G10" s="9">
+        <v>67864.001999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>565727</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>32474.845916599988</v>
       </c>
-      <c r="F10" s="12">
-        <v>206.5184408579</v>
-      </c>
-      <c r="G10" s="12">
-        <v>72684</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="8">
+      <c r="F11" s="12">
+        <v>206.51844085858841</v>
+      </c>
+      <c r="G11" s="12">
+        <v>73961.767000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>32938.064706999998</v>
       </c>
-      <c r="F11" s="9">
-        <v>198.10225225360006</v>
-      </c>
-      <c r="G11" s="9">
-        <v>77297</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="11">
+      <c r="F12" s="9">
+        <v>198.10225225381589</v>
+      </c>
+      <c r="G12" s="9">
+        <v>77296.758000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="11">
         <v>2023</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>32654.448896499998</v>
       </c>
-      <c r="F12" s="12">
-        <v>195.93434030649996</v>
-      </c>
-      <c r="G12" s="12">
-        <v>74737</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="8">
+      <c r="F13" s="12">
+        <v>195.93434030653356</v>
+      </c>
+      <c r="G13" s="12">
+        <v>74737.207999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="8">
         <v>2023</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>33408.695294000005</v>
       </c>
-      <c r="F13" s="9">
-        <v>192.31702734060011</v>
-      </c>
-      <c r="G13" s="9">
-        <v>69334</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="11">
+      <c r="F14" s="9">
+        <v>192.31702734058135</v>
+      </c>
+      <c r="G14" s="9">
+        <v>69333.937999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>548159</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>31812.399049789135</v>
       </c>
-      <c r="F14" s="12">
-        <v>207.44957959299998</v>
-      </c>
-      <c r="G14" s="12">
-        <v>68417</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="8">
+      <c r="F15" s="12">
+        <v>207.39075989290851</v>
+      </c>
+      <c r="G15" s="12">
+        <v>68416.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>32436.650621500004</v>
       </c>
-      <c r="F15" s="9">
-        <v>200.41513941626005</v>
-      </c>
-      <c r="G15" s="9">
-        <v>75169</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="11">
+      <c r="F16" s="9">
+        <v>200.36412301635232</v>
+      </c>
+      <c r="G16" s="9">
+        <v>75168.644</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="11">
         <v>2022</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>32995.800959337845</v>
       </c>
-      <c r="F16" s="12">
-        <v>209.53397946990003</v>
-      </c>
-      <c r="G16" s="12">
-        <v>75171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+      <c r="F17" s="12">
+        <v>209.41266056997608</v>
+      </c>
+      <c r="G17" s="12">
+        <v>75171.414999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2022</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>31210.206988248789</v>
       </c>
-      <c r="F17" s="9">
-        <v>191.39275181479999</v>
-      </c>
-      <c r="G17" s="9">
-        <v>68701</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="11">
+      <c r="F18" s="9">
+        <v>191.33937418475011</v>
+      </c>
+      <c r="G18" s="9">
+        <v>68700.706000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>534469</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>31630.514944016973</v>
       </c>
-      <c r="F18" s="12">
-        <v>212.91686863530001</v>
-      </c>
-      <c r="G18" s="12">
-        <v>73277</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="8">
+      <c r="F19" s="12">
+        <v>212.97568833561553</v>
+      </c>
+      <c r="G19" s="12">
+        <v>73160.543000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="8">
         <v>2021</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>32423.409937840333</v>
       </c>
-      <c r="F19" s="9">
-        <v>196.0363765733</v>
-      </c>
-      <c r="G19" s="9">
-        <v>74749</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="11">
+      <c r="F20" s="9">
+        <v>196.08739297324749</v>
+      </c>
+      <c r="G20" s="9">
+        <v>75552.547999999981</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="11">
         <v>2021</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
         <v>34311.741204166305</v>
       </c>
-      <c r="F20" s="12">
-        <v>194.48941446050003</v>
-      </c>
-      <c r="G20" s="12">
-        <v>73234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="16">
+      <c r="F21" s="12">
+        <v>194.61073336042986</v>
+      </c>
+      <c r="G21" s="12">
+        <v>73234.087</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16">
         <v>2021</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <v>31523.81947519313</v>
       </c>
-      <c r="F21" s="17">
-        <v>194.37553637900001</v>
-      </c>
-      <c r="G21" s="17">
-        <v>64855</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="11">
+      <c r="F22" s="17">
+        <v>194.42891400937953</v>
+      </c>
+      <c r="G22" s="17">
+        <v>64854.832999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>4</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>512726</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>31111.357007057821</v>
       </c>
-      <c r="F22" s="12">
-        <v>200.57809441839996</v>
-      </c>
-      <c r="G22" s="12">
-        <v>66779</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
+      <c r="F23" s="12">
+        <v>200.57809441816133</v>
+      </c>
+      <c r="G23" s="12">
+        <v>66779.148000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
         <v>30308.104352463604</v>
       </c>
-      <c r="F23" s="9">
-        <v>155.95410472520001</v>
-      </c>
-      <c r="G23" s="9">
-        <v>64571</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="11">
+      <c r="F24" s="9">
+        <v>155.95410472523412</v>
+      </c>
+      <c r="G24" s="9">
+        <v>64570.618000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="11">
         <v>2020</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
         <v>27552.924288397102</v>
       </c>
-      <c r="F24" s="12">
-        <v>114.9031058012</v>
-      </c>
-      <c r="G24" s="12">
-        <v>65611</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+      <c r="F25" s="12">
+        <v>114.90310580117198</v>
+      </c>
+      <c r="G25" s="12">
+        <v>65610.546000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2020</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
         <v>31408.919082404427</v>
       </c>
-      <c r="F25" s="9">
-        <v>169.66267317909998</v>
-      </c>
-      <c r="G25" s="9">
-        <v>69759</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="11">
+      <c r="F26" s="9">
+        <v>169.66267317940509</v>
+      </c>
+      <c r="G26" s="9">
+        <v>69758.509999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>552318</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>31033.42271943418</v>
       </c>
-      <c r="F26" s="12">
-        <v>203.596134538</v>
-      </c>
-      <c r="G26" s="12">
-        <v>71951</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+      <c r="F27" s="12">
+        <v>197.55206053914242</v>
+      </c>
+      <c r="G27" s="12">
+        <v>71950.710000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
         <v>32560.282552278186</v>
       </c>
-      <c r="F27" s="9">
-        <v>194.49256999899998</v>
-      </c>
-      <c r="G27" s="9">
-        <v>76511</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="11">
+      <c r="F28" s="9">
+        <v>189.54529999881791</v>
+      </c>
+      <c r="G28" s="9">
+        <v>76510.717999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="11">
         <v>2019</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>2</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>31880.54865369614</v>
       </c>
-      <c r="F28" s="12">
-        <v>195.52530778800002</v>
-      </c>
-      <c r="G28" s="12">
-        <v>78768</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+      <c r="F29" s="12">
+        <v>190.36580778799109</v>
+      </c>
+      <c r="G29" s="12">
+        <v>78767.944000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2019</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
         <v>29714.801600761464</v>
       </c>
-      <c r="F29" s="9">
-        <v>201.1130589771</v>
-      </c>
-      <c r="G29" s="9">
-        <v>75702</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="11">
+      <c r="F30" s="9">
+        <v>196.73772397698454</v>
+      </c>
+      <c r="G30" s="9">
+        <v>75702.039000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>556411</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>32135</v>
       </c>
-      <c r="F30" s="12">
-        <v>209.771813536</v>
-      </c>
-      <c r="G30" s="12">
-        <v>76824</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="8">
+      <c r="F31" s="12">
+        <v>215.81588753634838</v>
+      </c>
+      <c r="G31" s="12">
+        <v>76725.495999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
         <v>32318</v>
       </c>
-      <c r="F31" s="9">
-        <v>198.87781946639996</v>
-      </c>
-      <c r="G31" s="9">
-        <v>82588</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="11">
+      <c r="F32" s="9">
+        <v>203.82508946678863</v>
+      </c>
+      <c r="G32" s="9">
+        <v>82639.489000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="11">
         <v>2018</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
         <v>33073</v>
       </c>
-      <c r="F32" s="12">
-        <v>208.71426130699999</v>
-      </c>
-      <c r="G32" s="12">
-        <v>82579</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+      <c r="F33" s="12">
+        <v>213.87376130678223</v>
+      </c>
+      <c r="G33" s="12">
+        <v>82037.182000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2018</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
         <v>30512</v>
       </c>
-      <c r="F33" s="9">
-        <v>192.4300526573</v>
-      </c>
-      <c r="G33" s="9">
-        <v>75022</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="F34" s="9">
+        <v>196.80538765777933</v>
+      </c>
+      <c r="G34" s="9">
+        <v>75022.241999999998</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="14"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="G43" s="15"/>
+    <row r="44" spans="2:7">
+      <c r="G44" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
